--- a/published-data/fonds-solidarite/fds-2021-02-07/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-02-07/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -425,13 +425,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>513154</v>
+        <v>513152</v>
       </c>
       <c r="D2" t="n">
-        <v>151244</v>
+        <v>151243</v>
       </c>
       <c r="E2" t="n">
-        <v>804212487</v>
+        <v>804209692</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -1122,13 +1122,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>121140</v>
+        <v>121139</v>
       </c>
       <c r="D19" t="n">
         <v>37017</v>
       </c>
       <c r="E19" t="n">
-        <v>188721131</v>
+        <v>188719631</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1696,13 +1696,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>147467</v>
+        <v>147468</v>
       </c>
       <c r="D33" t="n">
         <v>47140</v>
       </c>
       <c r="E33" t="n">
-        <v>234845926</v>
+        <v>234847340</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -4897,10 +4897,10 @@
         <v>881699</v>
       </c>
       <c r="D111" t="n">
-        <v>214206</v>
+        <v>214207</v>
       </c>
       <c r="E111" t="n">
-        <v>1455037719</v>
+        <v>1455029355</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -6575,13 +6575,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>136073</v>
+        <v>136072</v>
       </c>
       <c r="D152" t="n">
         <v>41635</v>
       </c>
       <c r="E152" t="n">
-        <v>217801680</v>
+        <v>217801577</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -7067,13 +7067,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>360904</v>
+        <v>360905</v>
       </c>
       <c r="D164" t="n">
         <v>112239</v>
       </c>
       <c r="E164" t="n">
-        <v>545366067</v>
+        <v>545368712</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -7805,13 +7805,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>412209</v>
+        <v>412210</v>
       </c>
       <c r="D182" t="n">
-        <v>123828</v>
+        <v>123829</v>
       </c>
       <c r="E182" t="n">
-        <v>608280840</v>
+        <v>608280990</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -8584,13 +8584,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>162348</v>
+        <v>162349</v>
       </c>
       <c r="D201" t="n">
-        <v>51214</v>
+        <v>51215</v>
       </c>
       <c r="E201" t="n">
-        <v>252392566</v>
+        <v>252392669</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
